--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_18_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_18_1.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_10</t>
+          <t>model_18_1_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998906941942644</v>
+        <v>0.999542549861888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991294187621762</v>
+        <v>0.9994020724439348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9997852325992644</v>
+        <v>0.9998803266236305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996969821740702</v>
+        <v>0.9997787368568418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9997551257382162</v>
+        <v>0.9998208610001698</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001020321716839055</v>
+        <v>0.0004270096241871947</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000812649371408729</v>
+        <v>0.0005581391276005682</v>
       </c>
       <c r="I2" t="n">
-        <v>9.580382537215645e-05</v>
+        <v>0.0001087282611749622</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001644485565390149</v>
+        <v>0.0002944712139895778</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001301261909555857</v>
+        <v>0.00020159973758227</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001183668938618221</v>
+        <v>0.002020826284970776</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01010109754847984</v>
+        <v>0.02066421119199072</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000201795333666</v>
+        <v>1.000844523331899</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01053112218327314</v>
+        <v>0.02154392944324796</v>
       </c>
       <c r="P2" t="n">
-        <v>92.38044477149023</v>
+        <v>89.51740801181914</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4788502916137</v>
+        <v>134.6158135319426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_11</t>
+          <t>model_18_1_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999067466793562</v>
+        <v>0.9995689943796362</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991292871264039</v>
+        <v>0.9993273529625126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998109118720534</v>
+        <v>0.9998740241390922</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997159655372431</v>
+        <v>0.9997261689812464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997755974870512</v>
+        <v>0.9997872338388681</v>
       </c>
       <c r="G3" t="n">
-        <v>8.70478814733529e-05</v>
+        <v>0.0004023248276493772</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008127722476240769</v>
+        <v>0.0006278864837019729</v>
       </c>
       <c r="I3" t="n">
-        <v>8.434876954186147e-05</v>
+        <v>0.0001144543316319815</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001541462363291213</v>
+        <v>0.0003644319219613683</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001192475029354914</v>
+        <v>0.0002394431267966749</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001087854947221793</v>
+        <v>0.002020940162910058</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009329945416418732</v>
+        <v>0.02005803648539351</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000172159976573</v>
+        <v>1.000795702683749</v>
       </c>
       <c r="O3" t="n">
-        <v>0.009727140508445212</v>
+        <v>0.02091194862443628</v>
       </c>
       <c r="P3" t="n">
-        <v>92.69810445788102</v>
+        <v>89.63650153329273</v>
       </c>
       <c r="Q3" t="n">
-        <v>137.7965099780044</v>
+        <v>134.7349070534162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_12</t>
+          <t>model_18_1_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999197554325914</v>
+        <v>0.9996084831767825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991278387345538</v>
+        <v>0.9992810479980999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998313193035928</v>
+        <v>0.999884865340918</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997315893146632</v>
+        <v>0.999687261059954</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997921410010817</v>
+        <v>0.999768603945986</v>
       </c>
       <c r="G4" t="n">
-        <v>7.490478134653126e-05</v>
+        <v>0.0003654637688712048</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008141242578390882</v>
+        <v>0.0006711101354281751</v>
       </c>
       <c r="I4" t="n">
-        <v>7.524538606370485e-05</v>
+        <v>0.0001046046469374392</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001456671719818413</v>
+        <v>0.0004162130846677583</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001104562790227731</v>
+        <v>0.0002604088658025987</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00100200757935733</v>
+        <v>0.001943697754521324</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008654754840348238</v>
+        <v>0.01911710670763766</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000148143816754</v>
+        <v>1.000722800289017</v>
       </c>
       <c r="O4" t="n">
-        <v>0.009023205671714224</v>
+        <v>0.0199309615180482</v>
       </c>
       <c r="P4" t="n">
-        <v>92.99858566615254</v>
+        <v>89.82868682252654</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.096991186276</v>
+        <v>134.92709234265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_9</t>
+          <t>model_18_1_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998709514905976</v>
+        <v>0.9996462394455737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991277149528339</v>
+        <v>0.9992411537594793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997531649496595</v>
+        <v>0.9998993959671185</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996740828719965</v>
+        <v>0.9996510314046683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997299730255427</v>
+        <v>0.9997530469683714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001204611189523366</v>
+        <v>0.0003302199492632567</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008142398026411615</v>
+        <v>0.0007083496560258793</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001101086197326011</v>
+        <v>9.140296609170166e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001768760669015095</v>
+        <v>0.000464429838810126</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001434923433170553</v>
+        <v>0.0002779164024509138</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001290308605516179</v>
+        <v>0.001856346478235985</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01097547807397639</v>
+        <v>0.01817195502039494</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000238243401974</v>
+        <v>1.000653096408171</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0114427268979573</v>
+        <v>0.01894557276674584</v>
       </c>
       <c r="P5" t="n">
-        <v>92.0483670427937</v>
+        <v>90.03150322521175</v>
       </c>
       <c r="Q5" t="n">
-        <v>137.1467725629171</v>
+        <v>135.1299087453352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_13</t>
+          <t>model_18_1_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999302718128186</v>
+        <v>0.9996802096943188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991254062828433</v>
+        <v>0.9992028118610408</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998474873673505</v>
+        <v>0.999912703645804</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997443722378095</v>
+        <v>0.9996171379965381</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998054545156038</v>
+        <v>0.9997383777469451</v>
       </c>
       <c r="G6" t="n">
-        <v>6.508820202023558e-05</v>
+        <v>0.0002985102131812646</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008163948447384864</v>
+        <v>0.0007441401352033945</v>
       </c>
       <c r="I6" t="n">
-        <v>6.803310733079366e-05</v>
+        <v>7.931238414577765e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001387298465842101</v>
+        <v>0.0005095373650607993</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001033814769575019</v>
+        <v>0.0002944248746032885</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009252033101366939</v>
+        <v>0.001773744387078734</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008067725950987401</v>
+        <v>0.0172774481096389</v>
       </c>
       <c r="N6" t="n">
-        <v>1.00012872896095</v>
+        <v>1.000590382102796</v>
       </c>
       <c r="O6" t="n">
-        <v>0.008411185747215973</v>
+        <v>0.01801298484491434</v>
       </c>
       <c r="P6" t="n">
-        <v>93.27953450748288</v>
+        <v>90.23341282140865</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.3779400276063</v>
+        <v>135.3318183415321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_8</t>
+          <t>model_18_1_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.99984673465991</v>
+        <v>0.9997105023955556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991237032627296</v>
+        <v>0.9991656712485941</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997133852063187</v>
+        <v>0.9999233974322629</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996466356282264</v>
+        <v>0.9995875177358767</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996992610318536</v>
+        <v>0.9997251800925898</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001430664674031169</v>
+        <v>0.0002702333062726985</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008179845392606946</v>
+        <v>0.000778809266637829</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001278536386289655</v>
+        <v>6.959663246965144e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001917717569657367</v>
+        <v>0.0005489579119767969</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001598126977973511</v>
+        <v>0.0003092772722232242</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001408694341605077</v>
+        <v>0.001686585545531209</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0119610395619744</v>
+        <v>0.01643877447599724</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000282951397089</v>
+        <v>1.000534457115897</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01247024577889292</v>
+        <v>0.01713860713839481</v>
       </c>
       <c r="P7" t="n">
-        <v>91.70440245735776</v>
+        <v>90.43244974955353</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.8028079774812</v>
+        <v>135.5308552696769</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_14</t>
+          <t>model_18_1_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999387689650493</v>
+        <v>0.9997368328977717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991222893138436</v>
+        <v>0.9991295396718508</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998602367429414</v>
+        <v>0.9999313787651092</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997547993297874</v>
+        <v>0.9995619137093487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998161301584676</v>
+        <v>0.9997132575252856</v>
       </c>
       <c r="G8" t="n">
-        <v>5.715648339467622e-05</v>
+        <v>0.0002456549382294532</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008193043984806042</v>
+        <v>0.0008125365075348383</v>
       </c>
       <c r="I8" t="n">
-        <v>6.234584311596813e-05</v>
+        <v>6.234525819936753e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001330710368445885</v>
+        <v>0.0005830333963394713</v>
       </c>
       <c r="K8" t="n">
-        <v>9.770843998027833e-05</v>
+        <v>0.0003226947103138056</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008571630833113397</v>
+        <v>0.001599282876905408</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007560190698300951</v>
+        <v>0.01567338311372032</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000113041910678</v>
+        <v>1.00048584695796</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007882043668079848</v>
+        <v>0.01634063148124721</v>
       </c>
       <c r="P8" t="n">
-        <v>93.53943545786339</v>
+        <v>90.6231653936936</v>
       </c>
       <c r="Q8" t="n">
-        <v>138.6378409779868</v>
+        <v>135.721570913817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_15</t>
+          <t>model_18_1_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999456190763932</v>
+        <v>0.9997591952574253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999118719535867</v>
+        <v>0.9990946694779529</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998702075655548</v>
+        <v>0.9999369944648853</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997632180169944</v>
+        <v>0.9995400632214475</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998246210312259</v>
+        <v>0.9997026090618766</v>
       </c>
       <c r="G9" t="n">
-        <v>5.076220514027501e-05</v>
+        <v>0.0002247806570868991</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008226366295267023</v>
+        <v>0.0008450863029139471</v>
       </c>
       <c r="I9" t="n">
-        <v>5.789804077167726e-05</v>
+        <v>5.724316038567148e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001285021935598757</v>
+        <v>0.0006121134302154314</v>
       </c>
       <c r="K9" t="n">
-        <v>9.319638991069288e-05</v>
+        <v>0.0003346782953005515</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008038639105032609</v>
+        <v>0.001515016420675883</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00712476000580195</v>
+        <v>0.01499268678679372</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000100395551274</v>
+        <v>1.000444562601676</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007428075789535371</v>
+        <v>0.0156309565024477</v>
       </c>
       <c r="P9" t="n">
-        <v>93.77671694716375</v>
+        <v>90.80077097726785</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.8751224672872</v>
+        <v>135.8991764973913</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_7</t>
+          <t>model_18_1_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998171663568574</v>
+        <v>0.9997780285582706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991166673912915</v>
+        <v>0.9990615308039318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9996641790135857</v>
+        <v>0.9999407307685064</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996141522816951</v>
+        <v>0.9995220899795902</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996620209304315</v>
+        <v>0.9996934897740891</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001706671804042668</v>
+        <v>0.0002072005974342372</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008245522164091431</v>
+        <v>0.0008760198004929665</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001498036248916446</v>
+        <v>5.38485724808637e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002094005530018007</v>
+        <v>0.0006360333758217908</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001796020889467226</v>
+        <v>0.0003449409741513273</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001539584596979082</v>
+        <v>0.00143488665711974</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01306396495725041</v>
+        <v>0.01439446412459447</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000337539033494</v>
+        <v>1.000409793430885</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01362012499161614</v>
+        <v>0.015007266263027</v>
       </c>
       <c r="P10" t="n">
-        <v>91.35159042283232</v>
+        <v>90.96364632842646</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.4499959429557</v>
+        <v>136.0620518485499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_16</t>
+          <t>model_18_1_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999511299286705</v>
+        <v>0.9997937084288003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991148816549948</v>
+        <v>0.9990302364262185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998779297179367</v>
+        <v>0.9999431195239435</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997700065107763</v>
+        <v>0.9995072907411854</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998313216236769</v>
+        <v>0.9996857033070805</v>
       </c>
       <c r="G11" t="n">
-        <v>4.561806643781296e-05</v>
+        <v>0.0001925641265614492</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008262191228572434</v>
+        <v>0.0009052317284238809</v>
       </c>
       <c r="I11" t="n">
-        <v>5.445332925703482e-05</v>
+        <v>5.167828838825208e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001248180604561969</v>
+        <v>0.0006557291536047417</v>
       </c>
       <c r="K11" t="n">
-        <v>8.963569485661588e-05</v>
+        <v>0.0003537037209964969</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007564099517275535</v>
+        <v>0.00135982201239174</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006754114778252807</v>
+        <v>0.01387674769394649</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000090221670147</v>
+        <v>1.000380845977599</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007041651427308067</v>
+        <v>0.01446750957210558</v>
       </c>
       <c r="P11" t="n">
-        <v>93.99041345219258</v>
+        <v>91.11016266943142</v>
       </c>
       <c r="Q11" t="n">
-        <v>139.088818972316</v>
+        <v>136.2085681895548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_17</t>
+          <t>model_18_1_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999555646657357</v>
+        <v>0.9998066460314151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991108942455322</v>
+        <v>0.9990008347861999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998838727841138</v>
+        <v>0.9999444027752589</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997755386639975</v>
+        <v>0.9994952204094927</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998366409754317</v>
+        <v>0.9996790841808902</v>
       </c>
       <c r="G12" t="n">
-        <v>4.147843405003232e-05</v>
+        <v>0.0001804874424157136</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008299411945635717</v>
+        <v>0.0009326768687983455</v>
       </c>
       <c r="I12" t="n">
-        <v>5.180223569133009e-05</v>
+        <v>5.05124009669913e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001218157466187962</v>
+        <v>0.0006717931269175194</v>
       </c>
       <c r="K12" t="n">
-        <v>8.680899115506316e-05</v>
+        <v>0.0003611527639422554</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007141567752238423</v>
+        <v>0.001290215814141793</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006440375303507733</v>
+        <v>0.01343456148952074</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000082034463257</v>
+        <v>1.000356961172772</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006714555413592849</v>
+        <v>0.01400649858550579</v>
       </c>
       <c r="P12" t="n">
-        <v>94.18067385448686</v>
+        <v>91.2396987074312</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.2790793746103</v>
+        <v>136.3381042275546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_18</t>
+          <t>model_18_1_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999591238812554</v>
+        <v>0.9998172568700278</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991068638653602</v>
+        <v>0.9989733237584765</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998883520829667</v>
+        <v>0.9999449766027896</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997799392262765</v>
+        <v>0.9994852908039231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998407681205757</v>
+        <v>0.9996734444890339</v>
       </c>
       <c r="G13" t="n">
-        <v>3.815606259384597e-05</v>
+        <v>0.0001705826903327155</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008337033775409531</v>
+        <v>0.0009583572055836362</v>
       </c>
       <c r="I13" t="n">
-        <v>4.980410206575397e-05</v>
+        <v>4.999105468662366e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001194275501074855</v>
+        <v>0.0006850080842970513</v>
       </c>
       <c r="K13" t="n">
-        <v>8.461582608661977e-05</v>
+        <v>0.0003674995694918374</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000676524434501728</v>
+        <v>0.001225979393555108</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006177059380793257</v>
+        <v>0.01306073084986883</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000075463603836</v>
+        <v>1.000337371932256</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006440029586909314</v>
+        <v>0.0136167532015878</v>
       </c>
       <c r="P13" t="n">
-        <v>94.3476517964215</v>
+        <v>91.35258078304075</v>
       </c>
       <c r="Q13" t="n">
-        <v>139.4460573165449</v>
+        <v>136.4509863031642</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_6</t>
+          <t>model_18_1_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9997812248326575</v>
+        <v>0.9998259003240169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991058055929072</v>
+        <v>0.9989477160024052</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9996037874716389</v>
+        <v>0.9999450337343334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9995761619392231</v>
+        <v>0.9994770975214402</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996172740159227</v>
+        <v>0.999668622906546</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002042170155942468</v>
+        <v>0.0001625144054377153</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00083469122842301</v>
+        <v>0.0009822609218256618</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001767431916918681</v>
+        <v>4.993914829274121e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002300180099543653</v>
+        <v>0.0006959122312999884</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002033806008231167</v>
+        <v>0.0003729256897963647</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001684301645962007</v>
+        <v>0.001167097875813627</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01429045190308014</v>
+        <v>0.01274811379921419</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000403892616632</v>
+        <v>1.00032141478643</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01489882602590782</v>
+        <v>0.01329082739588028</v>
       </c>
       <c r="P14" t="n">
-        <v>90.99265465524755</v>
+        <v>91.44948782255216</v>
       </c>
       <c r="Q14" t="n">
-        <v>136.091060175371</v>
+        <v>136.5478933426756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_19</t>
+          <t>model_18_1_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999619706659678</v>
+        <v>0.9998329193619989</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991028921428384</v>
+        <v>0.9989239866605052</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998916911130831</v>
+        <v>0.9999447257438066</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997834476233423</v>
+        <v>0.9994703723333686</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998439610980355</v>
+        <v>0.9996645220154815</v>
       </c>
       <c r="G15" t="n">
-        <v>3.549871402420104e-05</v>
+        <v>0.0001559624415815738</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008374108061765153</v>
+        <v>0.001004411220891553</v>
       </c>
       <c r="I15" t="n">
-        <v>4.831462155293467e-05</v>
+        <v>5.021897055106511e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001175235339610585</v>
+        <v>0.0007048625438892139</v>
       </c>
       <c r="K15" t="n">
-        <v>8.291907775699658e-05</v>
+        <v>0.0003775407572201396</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006430333635524259</v>
+        <v>0.001113543420076674</v>
       </c>
       <c r="M15" t="n">
-        <v>0.005958079726237393</v>
+        <v>0.01248849236623756</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00007020800129</v>
+        <v>1.000308456562464</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006211727515108632</v>
+        <v>0.01302015334101138</v>
       </c>
       <c r="P15" t="n">
-        <v>94.49202817361885</v>
+        <v>91.53179067758867</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.5904336937423</v>
+        <v>136.6301961977121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_20</t>
+          <t>model_18_1_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999964246699336</v>
+        <v>0.9998385584693732</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990990102669201</v>
+        <v>0.9989019651730344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998940943580702</v>
+        <v>0.9999441540646632</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997862469586595</v>
+        <v>0.999464660403991</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998463992332942</v>
+        <v>0.9996609138184787</v>
       </c>
       <c r="G16" t="n">
-        <v>3.337413678129072e-05</v>
+        <v>0.0001506985823758929</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008410343669516952</v>
+        <v>0.001024967312813938</v>
       </c>
       <c r="I16" t="n">
-        <v>4.724257774048379e-05</v>
+        <v>5.07383649318389e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001160043274563871</v>
+        <v>0.000712464346674965</v>
       </c>
       <c r="K16" t="n">
-        <v>8.162345259843544e-05</v>
+        <v>0.000381601355803402</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006132232377815265</v>
+        <v>0.001070069063077226</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005777035293408785</v>
+        <v>0.01227593509171065</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000066006093534</v>
+        <v>1.000298045902696</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006022975645960869</v>
+        <v>0.01279854706325364</v>
       </c>
       <c r="P16" t="n">
-        <v>94.61545861161866</v>
+        <v>91.60045771860891</v>
       </c>
       <c r="Q16" t="n">
-        <v>139.7138641317421</v>
+        <v>136.6988632387323</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_21</t>
+          <t>model_18_1_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999660669503689</v>
+        <v>0.9998430852295307</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990952644023567</v>
+        <v>0.9988816791480308</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998957780719081</v>
+        <v>0.9999434175465397</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997885073622771</v>
+        <v>0.9994598698986922</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998482601674566</v>
+        <v>0.9996577839158063</v>
       </c>
       <c r="G17" t="n">
-        <v>3.167501234183735e-05</v>
+        <v>0.0001464730504707464</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008445309670971132</v>
+        <v>0.001043903426701185</v>
       </c>
       <c r="I17" t="n">
-        <v>4.649150366710427e-05</v>
+        <v>5.140752241130343e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001147776005766396</v>
+        <v>0.0007188398590664506</v>
       </c>
       <c r="K17" t="n">
-        <v>8.063455212187194e-05</v>
+        <v>0.000385123690738877</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005866119297713333</v>
+        <v>0.001033754014267108</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005628055822558741</v>
+        <v>0.01210260511091502</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000062645630088</v>
+        <v>1.00028968880702</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005867653810606719</v>
+        <v>0.01261783806633302</v>
       </c>
       <c r="P17" t="n">
-        <v>94.71996488423491</v>
+        <v>91.65733820452037</v>
       </c>
       <c r="Q17" t="n">
-        <v>139.8183704043583</v>
+        <v>136.7557437246438</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_22</t>
+          <t>model_18_1_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999675174019702</v>
+        <v>0.999846731239081</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990916889721897</v>
+        <v>0.9988630465551056</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998969054814797</v>
+        <v>0.9999425863355369</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997902874195082</v>
+        <v>0.9994559289233805</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998496423263162</v>
+        <v>0.999655118112006</v>
       </c>
       <c r="G18" t="n">
-        <v>3.032107943954883e-05</v>
+        <v>0.0001430696605968481</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008478684742147459</v>
+        <v>0.001061296134320587</v>
       </c>
       <c r="I18" t="n">
-        <v>4.598858679351728e-05</v>
+        <v>5.216271232692458e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001138115589211127</v>
+        <v>0.0007240847623419851</v>
       </c>
       <c r="K18" t="n">
-        <v>7.990007285731501e-05</v>
+        <v>0.0003881237373344548</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005628606047540446</v>
+        <v>0.001000730819964565</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005506457975827004</v>
+        <v>0.01196117304434846</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000059967873286</v>
+        <v>1.000282957712466</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005740879291797369</v>
+        <v>0.01247038494388798</v>
       </c>
       <c r="P18" t="n">
-        <v>94.80733479251118</v>
+        <v>91.7043578185524</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9057403126346</v>
+        <v>136.8027633386758</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_5</t>
+          <t>model_18_1_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997377880273444</v>
+        <v>0.9998496219593063</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990901476063895</v>
+        <v>0.9988459185026641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9995302642265022</v>
+        <v>0.9999416974831424</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999532367630992</v>
+        <v>0.9994525395052339</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995640517154284</v>
+        <v>0.9996527551735214</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002447633666987034</v>
+        <v>0.0001403713001545202</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008493072715311713</v>
+        <v>0.001077284419440131</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002095405720846122</v>
+        <v>5.297027185455972e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002537852941104218</v>
+        <v>0.0007285956178875409</v>
       </c>
       <c r="K19" t="n">
-        <v>0.000231662933097517</v>
+        <v>0.0003907829448710503</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001843553222957783</v>
+        <v>0.0009708531046364544</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01564491504287266</v>
+        <v>0.01184783947201009</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000484083641826</v>
+        <v>1.000277620998204</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01631095146568654</v>
+        <v>0.01235222652674233</v>
       </c>
       <c r="P19" t="n">
-        <v>90.63043732872558</v>
+        <v>91.74243900424395</v>
       </c>
       <c r="Q19" t="n">
-        <v>135.728842848849</v>
+        <v>136.8408445243674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_23</t>
+          <t>model_18_1_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999686735034933</v>
+        <v>0.9998519322938867</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990882942039583</v>
+        <v>0.998830253496151</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999897599322409</v>
+        <v>0.9999407912301956</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997917220608686</v>
+        <v>0.9994497260842286</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998506661250569</v>
+        <v>0.9996507257951731</v>
       </c>
       <c r="G20" t="n">
-        <v>2.924190941478578e-05</v>
+        <v>0.0001382147042356052</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008510373413457507</v>
+        <v>0.001091907015405815</v>
       </c>
       <c r="I20" t="n">
-        <v>4.567907699366549e-05</v>
+        <v>5.379364051074857e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001130329753504587</v>
+        <v>0.0007323398994117403</v>
       </c>
       <c r="K20" t="n">
-        <v>7.935602617206207e-05</v>
+        <v>0.0003930667699612445</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0005416399744870127</v>
+        <v>0.0009437823340200165</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005407578886598491</v>
+        <v>0.01175647499191851</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000057833532012</v>
+        <v>1.000273355765132</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005637790715032466</v>
+        <v>0.0122569724715827</v>
       </c>
       <c r="P20" t="n">
-        <v>94.87981524750296</v>
+        <v>91.77340450811802</v>
       </c>
       <c r="Q20" t="n">
-        <v>139.9782207676264</v>
+        <v>136.8718100282414</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_24</t>
+          <t>model_18_1_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999695871380999</v>
+        <v>0.9998537402241385</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990851180091435</v>
+        <v>0.9988159046238114</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999897954228426</v>
+        <v>0.9999398949077206</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997928133459371</v>
+        <v>0.9994472507459249</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998513723353376</v>
+        <v>0.9996489003318493</v>
       </c>
       <c r="G21" t="n">
-        <v>2.838907161340578e-05</v>
+        <v>0.0001365270807045067</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000854002179786535</v>
+        <v>0.001105301057892141</v>
       </c>
       <c r="I21" t="n">
-        <v>4.552075988425535e-05</v>
+        <v>5.460798691866905e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001124407321260686</v>
+        <v>0.0007356342387441492</v>
       </c>
       <c r="K21" t="n">
-        <v>7.898074600516197e-05</v>
+        <v>0.0003951211128314092</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005226682771381734</v>
+        <v>0.0009193164886870524</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005328139601531268</v>
+        <v>0.01168448033523557</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000056146821969</v>
+        <v>1.000270018047744</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005554969535137941</v>
+        <v>0.01218191285331529</v>
       </c>
       <c r="P21" t="n">
-        <v>94.9390125783948</v>
+        <v>91.79797513915405</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.0374180985182</v>
+        <v>136.8963806592775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_4</t>
+          <t>model_18_1_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9996855734686951</v>
+        <v>0.9998551799977763</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990686391831913</v>
+        <v>0.9988028473640642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9994412437214895</v>
+        <v>0.9999390275978235</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994822686644296</v>
+        <v>0.9994452143089849</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995011054790658</v>
+        <v>0.9996473460997578</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000293503365243515</v>
+        <v>0.0001351831152124035</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008693844404759647</v>
+        <v>0.001117489436718605</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002492509978175993</v>
+        <v>5.539597418756445e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002809741326218193</v>
+        <v>0.000738344459928591</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002651125652197093</v>
+        <v>0.0003968702170580777</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002017768161928039</v>
+        <v>0.0008971768073818755</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01713193991477658</v>
+        <v>0.01162682739238884</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000580479750101</v>
+        <v>1.000267360004105</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01786128206495325</v>
+        <v>0.01212180550533353</v>
       </c>
       <c r="P22" t="n">
-        <v>90.267242905711</v>
+        <v>91.81776057927345</v>
       </c>
       <c r="Q22" t="n">
-        <v>135.3656484258344</v>
+        <v>136.9161660993969</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_3</t>
+          <t>model_18_1_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9996232587955809</v>
+        <v>0.9998562953253136</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990399093612604</v>
+        <v>0.9987909166236271</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9993348145869762</v>
+        <v>0.9999381841572688</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9994258257036686</v>
+        <v>0.9994434119394073</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9994276265936711</v>
+        <v>0.9996459399055324</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00035167137729766</v>
+        <v>0.0001341420059135135</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008962024681550433</v>
+        <v>0.001128626259217717</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0002967270960638826</v>
+        <v>5.616227516198984e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003116058731653703</v>
+        <v>0.0007407431692210373</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000304159247392115</v>
+        <v>0.0003984527221915136</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00220718910656768</v>
+        <v>0.000877204574391568</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01875290316984706</v>
+        <v>0.01158196899985117</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000695522223543</v>
+        <v>1.000265300937883</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0195512530816486</v>
+        <v>0.01207503739815585</v>
       </c>
       <c r="P23" t="n">
-        <v>89.90562681130541</v>
+        <v>91.83322314704823</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.0040323314288</v>
+        <v>136.9316286671717</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_2</t>
+          <t>model_18_1_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999549088102425</v>
+        <v>0.9998571552894731</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990022494834707</v>
+        <v>0.9987800516728119</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9992081608986133</v>
+        <v>0.9999373847088386</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9993614650192298</v>
+        <v>0.9994418325986973</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993415886922808</v>
+        <v>0.9996446833449205</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0004209064636414474</v>
+        <v>0.0001333392671187858</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009313563109941013</v>
+        <v>0.001138768213887494</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003532249993820949</v>
+        <v>5.688860745359867e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003465345827926578</v>
+        <v>0.0007428450573599875</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003498797910873764</v>
+        <v>0.0003998668324067931</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002412748174141889</v>
+        <v>0.000859185550183215</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02051600506047528</v>
+        <v>0.01154726232138102</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000832452733984</v>
+        <v>1.000263713311742</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02138941386988492</v>
+        <v>0.0120388531845305</v>
       </c>
       <c r="P24" t="n">
-        <v>89.54619985118083</v>
+        <v>91.84522759424752</v>
       </c>
       <c r="Q24" t="n">
-        <v>134.6446053713042</v>
+        <v>136.9436331143709</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_1</t>
+          <t>model_18_1_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9994608256575027</v>
+        <v>0.9998578161483753</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989533863046072</v>
+        <v>0.9987701719908705</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990573098811422</v>
+        <v>0.9999366298027226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9992862084109881</v>
+        <v>0.9994404639389007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9992398443943645</v>
+        <v>0.999643569338732</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000503295581702879</v>
+        <v>0.0001327223843418919</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009769679436175416</v>
+        <v>0.001147990463311842</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004205168904489671</v>
+        <v>5.757447119239772e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003873765384016989</v>
+        <v>0.0007446665577964903</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000403946714425333</v>
+        <v>0.0004011205144944439</v>
       </c>
       <c r="L25" t="n">
-        <v>0.002636054714900063</v>
+        <v>0.0008429362150197087</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02243425019257116</v>
+        <v>0.01152052014198542</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000995398786149</v>
+        <v>1.000262493264538</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02338932266856895</v>
+        <v>0.01201097253519409</v>
       </c>
       <c r="P25" t="n">
-        <v>89.18866584575122</v>
+        <v>91.85450189407865</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.2870713658747</v>
+        <v>136.9529074142021</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_1_0</t>
+          <t>model_18_1_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9993558284524894</v>
+        <v>0.9998583203027287</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9988910633042341</v>
+        <v>0.9987612012288504</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9988769870627799</v>
+        <v>0.9999359247154951</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9991951291704019</v>
+        <v>0.9994392732567332</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9991176505146028</v>
+        <v>0.9996425806796283</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0006013058637381936</v>
+        <v>0.000132251778382813</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001035143728802388</v>
+        <v>0.001156364275886747</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0005009556150497432</v>
+        <v>5.821507239002291e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0004368054774389894</v>
+        <v>0.0007462511941635093</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004688805462443663</v>
+        <v>0.0004022331332767661</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002878868974737831</v>
+        <v>0.0008282736531899027</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02452153877182657</v>
+        <v>0.01150007732073194</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00118923978002</v>
+        <v>1.000261562518039</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02556547144392629</v>
+        <v>0.01198965942071737</v>
       </c>
       <c r="P26" t="n">
-        <v>88.83281365639628</v>
+        <v>91.86160608037451</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.9312191765197</v>
+        <v>136.9600116004979</v>
       </c>
     </row>
   </sheetData>
